--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyWork\CodeChallenges\Aquilon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyWork\DevCanTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -48,12 +48,66 @@
   </si>
   <si>
     <t>Add AngularJS &amp; First Controller &amp; Create GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/erikcheatham/DevCanTest</t>
+  </si>
+  <si>
+    <t>Connect to LocalDB &amp; Data Discovery</t>
+  </si>
+  <si>
+    <t>Bonus: Login Page</t>
+  </si>
+  <si>
+    <t>AdventureWorks DB Data Discovery</t>
+  </si>
+  <si>
+    <t>Create Stored Procs</t>
+  </si>
+  <si>
+    <t>ADO.NET Code</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Postman request through WebAPI Testing</t>
+  </si>
+  <si>
+    <t>Sproc SQL  Server Profiler Testing</t>
+  </si>
+  <si>
+    <t>Come back fresh in the morning</t>
+  </si>
+  <si>
+    <t>Reflection &amp; Generics in ADO.Net</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>AdventureWorksDW DB (Wrong DB) - Burned hour - comments in Word Doc (Root Folder)</t>
+  </si>
+  <si>
+    <t>SQL Code  (Root Folder)</t>
+  </si>
+  <si>
+    <t>Didn't need at all, only needed the Load method for datatable - code commented (OrderSearches)</t>
+  </si>
+  <si>
+    <t>Create Pages &amp; Display Data</t>
+  </si>
+  <si>
+    <t>Change Bootstrap</t>
+  </si>
+  <si>
+    <t>Angular &amp; WebAPI Firing Together</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +470,7 @@
     <col min="1" max="1" width="49.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="4" max="4" width="89.85546875" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,6 +512,149 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Time</t>
   </si>
@@ -95,13 +95,19 @@
     <t>Didn't need at all, only needed the Load method for datatable - code commented (OrderSearches)</t>
   </si>
   <si>
-    <t>Create Pages &amp; Display Data</t>
-  </si>
-  <si>
-    <t>Change Bootstrap</t>
-  </si>
-  <si>
     <t>Angular &amp; WebAPI Firing Together</t>
+  </si>
+  <si>
+    <t>Create Pages &amp; Gut Old App Stuff</t>
+  </si>
+  <si>
+    <t>https://www.cssmatic.com/noise-texture</t>
+  </si>
+  <si>
+    <t>Change Bootstrap &amp; Custom CSS</t>
+  </si>
+  <si>
+    <t>Finish Pages And Display Data Nicely</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +632,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -646,13 +652,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
